--- a/src/test/resources/test_data/table_07-02_1 (39).xlsx
+++ b/src/test/resources/test_data/table_07-02_1 (39).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF5A5F-C5B9-459B-B6FE-2E215E6A9413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D2BB6-6359-46C0-9562-17FB74178FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41524AFF-7C27-4853-9510-24785DA33BF1}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
